--- a/documentExtractionResults.xlsx
+++ b/documentExtractionResults.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>Attendees</x:t>
   </x:si>
@@ -75,12 +75,6 @@
   </x:si>
   <x:si>
     <x:t>jonnygovish@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kathy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>catherine.ndungu@moringaschool.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -427,9 +421,9 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="A1" sqref="A1 1:1048576"/>
     </x:sheetView>
   </x:sheetViews>
@@ -444,7 +438,7 @@
     <x:col min="7" max="16384" width="8.726562" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:6" s="0" customFormat="1" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -460,8 +454,9 @@
       <x:c r="E1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:6" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -492,10 +487,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B5"/>
+  <x:dimension ref="A1:B4"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A5" sqref="A5 5:5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,20 +531,11 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId6"/>
-    <x:hyperlink ref="B3" r:id="rId7"/>
-    <x:hyperlink ref="B4" r:id="rId8"/>
-    <x:hyperlink ref="B5" r:id="rId9"/>
+    <x:hyperlink ref="B2" r:id="rId12"/>
+    <x:hyperlink ref="B3" r:id="rId13"/>
+    <x:hyperlink ref="B4" r:id="rId14"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentExtractionResults.xlsx
+++ b/documentExtractionResults.xlsx
@@ -533,9 +533,9 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId12"/>
-    <x:hyperlink ref="B3" r:id="rId13"/>
-    <x:hyperlink ref="B4" r:id="rId14"/>
+    <x:hyperlink ref="B2" r:id="rId9"/>
+    <x:hyperlink ref="B3" r:id="rId10"/>
+    <x:hyperlink ref="B4" r:id="rId11"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentExtractionResults.xlsx
+++ b/documentExtractionResults.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A70D8-C79C-43AC-A331-70E2E4BD2FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="0" activeTab="1"/>
+    <x:workbookView xWindow="380" yWindow="980" windowWidth="14400" windowHeight="7360" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,36 +22,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <x:si>
-    <x:t>Attendees</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Agenda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Notes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action Items</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Next Meeting Agenda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product, Business Development, Classroom, Execo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Last Meeting Follow-up 1. Lorem ipsum dolor sit amet, consectetuer adipiscing elit. New Business 2. Lorem ipsum dolor sit amet, consectetuer adipiscing elit. 3. Suspendisse scelerisque mi a mi.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>● Lorem ipsum dolor sit amet consectetuer adipiscing elit. ● Suspendisse scelerisque mi a mi. ● Vestibulum ante ipsum primis elementum, libero interdum auctor cursus, sapien enim dictum quam. ○ Phasellus vehicula nonummy nunc.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. Lorem ipsum dolor sit amet consectetuer adipiscing elit. 2. Suspendisse scelerisque mi a mi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit.</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <x:si>
+    <x:t>Cybersecurity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mini-Apps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soft-Skills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q1_2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soft_skills_Strategy-linkendIn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strategy_pilot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strategy_1-roadmap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strategy_2-grade_weighting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skills_&amp;_employability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Learnings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mobile Development Pilot: Nucamp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Launch of the SD Mobile Course</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mpesa_Africa_Mini_Apps_Delivery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product_planning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data_analytics</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Digital_marketing </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product_Management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Analyst</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The cybersecurity training kicked off in October 2023 as a partnership between Moringa School and ICT Authority with the goal of equipping all public servants with knowledge and fundamentals of cybersecurity. We have so far trained two cohorts from various government ministries and parastatals including the Ministry of Lands, Agricultural Finance Corporation, NCPB among others. The training consists of 7 key topics for 3 days, each 4 hours per day. The training showcased the need for cybersecurity training in government and we are looking forward to training more civil servants this year. The next cohort will commence on February 5th 2024.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Introducing our Mini Applications Development Program, a groundbreaking initiative designed for aspiring developers. This unique course, developed in collaboration with Mpesa Africa, pioneers the introduction of mini-apps on the continent, uncovering the world of cross-platform super applications. The 22-week full-time program covers front-end concepts and reactive/state programming (React) requisite to rendering multiple mobile services on a native mobile application referred to as a super-application.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Soft Skills Programme continues to be our unique selling point and as such we are constantly innovating to improve the product offering to our customers.&lt;br&gt; As of the last half of 2023 we embarked on the RFP process to get a soft skills curriculum partner who was aligned to our learning goals which is to provide an experiential learning platform. Out of the service providers who were involved in the process we settled on Turnleft Media which is a subsidiary of LinkedIn Learning in Africa. The decision was informed by the subsidized cost and the robust library of courses.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In Q1 of 2024 and as part of the new soft skills strategy we are looking to:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Onboard students to LinkedIn Learning, a tool meant to enrich learning for our students.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We will pilot with SDFFT 9 the 2024 soft strategy which includes:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A soft skills roadmap that will see us pace and chunk soft skills until the phase 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Implementing grade weighting of the soft skills assessments across the different phases</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Differentiating content for the skills and employability pathways</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Draw learnings from the pilot cohort and implement at scale to the rest of the 2024 cohorts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fullstack Mobile Pilot: The current React Native mobile bootcamp is designed to equip learners with the requisite skills to design cross-platform (Web &amp; Mobile) applications that can be hosted on both iOS and android app stores. The pilot entails key milestones:&lt;br&gt; Content review and Scoping: Analysis of students' journey documenting tools, services and activities required from onboarding to successful course completion.&lt;br&gt; Status: 90% : Pending Fulltime and Part-time pacing ETA 10th Feb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In this course, you'll learn to build a mobile app using JavaScript's React Native framework. Javascript enables cross-platform software development where learners develop solutions that can be run on (compatibility with) both Android and iOS app stores.&lt;br&gt; Task: Scoping and pacing fulltime x part time schedules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bronze module train the trainer and onboarding.&lt;br&gt; Task: Align on classroom expectations and roles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Design sprints prioritization. &lt;br&gt; Some of the courses in discussion include:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI and Machine Learning (8-12 weeks)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Analytics (8-12 weeks)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Digital Marketing (6 weeks)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product Management (8-12 weeks)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cybersecurity Analyst+ (22-33 weeks)</x:t>
   </x:si>
   <x:si>
     <x:t>Name</x:t>
@@ -80,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -417,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:S2"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A1" sqref="A1 1:1048576"/>
+    <x:sheetView topLeftCell="L1" workbookViewId="0">
+      <x:selection activeCell="N1" sqref="N1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.726562" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,12 +518,17 @@
     <x:col min="2" max="2" width="35.363281" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="34" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="53.363281" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="18.816406" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="43.089844" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="16384" width="8.726562" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="27.542969" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="28.089844" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="8.542969" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="11" width="8.726562" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.726562" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="8.726562" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="8.726562" style="0" customWidth="1"/>
+    <x:col min="15" max="16384" width="8.726562" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6" s="0" customFormat="1" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:19" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -454,40 +544,123 @@
       <x:c r="E1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s"/>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:6" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="2" spans="1:19" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A2" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R2" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="S2" s="1" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
+  <x:dimension ref="A1:B6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="A5" sqref="A5 5:5"/>
@@ -501,41 +674,44 @@
   <x:sheetData>
     <x:row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <x:row r="4" spans="1:2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <x:c r="B6" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId9"/>
-    <x:hyperlink ref="B3" r:id="rId10"/>
-    <x:hyperlink ref="B4" r:id="rId11"/>
+    <x:hyperlink ref="B2" r:id="rId12"/>
+    <x:hyperlink ref="B3" r:id="rId13"/>
+    <x:hyperlink ref="B4" r:id="rId14"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentExtractionResults.xlsx
+++ b/documentExtractionResults.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A70D8-C79C-43AC-A331-70E2E4BD2FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <x:bookViews>
-    <x:workbookView xWindow="380" yWindow="980" windowWidth="14400" windowHeight="7360" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="375" yWindow="975" windowWidth="14400" windowHeight="7365" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <x:sheet name="EmailList" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <x:si>
     <x:t>Cybersecurity</x:t>
   </x:si>
@@ -144,28 +144,769 @@
     <x:t>Email</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">John </x:t>
+    <x:t>Setriakor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>setriakor.nyomi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Agnes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>agnes.wahu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>agnes.amukhoye@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>albert.byrone@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alex.mwaura@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Allan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>allan.ong'ang'a@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>andrew.mwangi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>andrew.john@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>andrew.anampiu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anita.kahenya@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>annabel.nkirote@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antonny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>antonny.muiko@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arnold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arnold.mate@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arnold.kamau@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asha.deen@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barclay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>barclay.koin@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bdoutcomes@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>businessdevelopment@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beatrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>beatrice.wambui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bernard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bernard.musau@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bin.amin@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bookings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bookings@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boyd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boyd.ndonga@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brenda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brenda.mwaura@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brian.ng'eno@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bright</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bright.gameli@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caleb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>caleb.kiprotich@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Catherine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>catherine.ndungu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cecilia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cecilia.akinyi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chloe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chloe@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>christine.karimi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clare</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clare.korir@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cyrus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cyrus.kirui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daisy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daisy.machoka@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daniel.karanja@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Denise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>denise.wambui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dennis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dennis.kiboi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Densel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>densel.esekon@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diana.mongina@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dorine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dorine.ndinya@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edgar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edgar.shikumo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edwin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edwin.ombongi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edwinna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edwinna.bikeri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elizabeth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elizabeth.wanja@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eric.mongare@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esther</x:t>
+  </x:si>
+  <x:si>
+    <x:t>esther.kithinji@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>esther.wangai@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eunice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eunice.wagura@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Execco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>execco@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faith.rotich@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faith.kamau@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faith.thuita@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Felix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>felix.gitonga@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fiona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fiona.kirui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flora</x:t>
+  </x:si>
+  <x:si>
+    <x:t>floranyoro@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Francis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>francis.kipchumba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaudent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gaudent.akeyo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George</x:t>
+  </x:si>
+  <x:si>
+    <x:t>george.okumu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gideon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gideon.ngetich@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gideon.maroko@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gideon.biwott@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gloria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gloria.mumbi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grace.waturi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grace.mukami@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hamida.mstafa@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Henry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>henry.onyango@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hope.wanjeri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ian.okumu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Irene</x:t>
+  </x:si>
+  <x:si>
+    <x:t>irene.kathungu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Janet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>janet.wambui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jerusha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jerusha.kasyula@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joan.chepkwony@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John</x:t>
   </x:si>
   <x:si>
     <x:t>john.mutavi@moringaschool.com</x:t>
   </x:si>
   <x:si>
-    <x:t>Mutavi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jonnymutavi@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Puppah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jonnygovish@gmail.com</x:t>
+    <x:t>Joseph</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joseph.wambua@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joseph.mulwa@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joseph.mbugua@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joy.mugambi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julius</x:t>
+  </x:si>
+  <x:si>
+    <x:t>julius.mwangi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kathleen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kathleen.njagi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kelvin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kelvin.kipchumba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kelvin.muriithi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ken</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ken.mbuki@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khalif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khalif.muyideen@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lians</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lians.wanjiku@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Licio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>licio.lentimo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lorenah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lorenah.mbogo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lucille</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lucille.kaleha@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maisie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maisie.riabe@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mark.tiba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mark.carlton@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mary.wanjiru@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mary.maina@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryann</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maryann.mwikali@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MatterMost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mmadmin@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maureen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maureen.murimi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mercy.nzau@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mildred</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mildred.jepkosgei@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nancy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nancy.umutoniwase@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nelson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nelson.muriithi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nikita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nikita.njoroge@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pauline</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pauline.kagiri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Peter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>peter.muturi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Philip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>philip.kasiano@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prince</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prince.israel@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rai.omido@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raphael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>raphael.oduor@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rhona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rhona.joy@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rodney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rodney.mutinda@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rose.oketch@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rosemary.njeri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sam.ngigi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sam.tomashi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samuel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.karu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.kadima@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.maingi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.mwangi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samwel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samwel.jane@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sarah.nyamiri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sarah.ngetha@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sasha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sasha.achieng@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shadrack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shadrack.kiema@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>silas.silikhe@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Snehar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>snehar@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solomon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>solomon.kitonyi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stella</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stella.ngina@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stephen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stephen.njuguna@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>steve.otieno@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>steve.biko@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>steve.nyikuli@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Titus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>titus.ouko@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Veronica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>veronica.isiaho@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Victor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>victor.kuria@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>victor.njonge@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>walter.wanami@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whitney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>whitney.atieno@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>William</x:t>
+  </x:si>
+  <x:si>
+    <x:t>william.okomba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>winnie.anyoso@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuying</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yuyingcwynn@moringaschool.com</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -178,12 +919,10 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color theme="10"/>
-      <x:name val="Calibri"/>
+      <x:sz val="10"/>
+      <x:color theme="1"/>
+      <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:scheme val="minor"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -201,7 +940,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border>
       <x:left/>
       <x:right/>
@@ -209,11 +948,25 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -222,10 +975,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="2">
-    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -512,23 +1266,19 @@
       <x:selection activeCell="N1" sqref="N1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.726562" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultColWidth="8.710938" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="25.269531" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="35.363281" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="25.285156" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="35.425781" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="53.363281" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="27.542969" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="28.089844" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="8.542969" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="11" width="8.726562" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.726562" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="8.726562" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="8.726562" style="0" customWidth="1"/>
-    <x:col min="15" max="16384" width="8.726562" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="53.425781" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="27.570312" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="28.140625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="8.570312" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="16384" width="8.710938" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:19" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:19" customFormat="1" ht="72.6" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -587,7 +1337,7 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:19" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="2" spans="1:19" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -656,23 +1406,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B6"/>
+  <x:dimension ref="A1:B139"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A5" sqref="A5 5:5"/>
+    <x:sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <x:selection activeCell="D8" sqref="D8"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.179688" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="29.453125" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="35.855469" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -680,39 +1430,2244 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <x:c r="A2" s="0" t="s">
+    <x:row r="2" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="0" t="s">
+    <x:row r="3" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A4" s="0" t="s">
+    <x:row r="4" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+    </x:row>
+    <x:row r="5" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <x:c r="B6" s="2" t="s"/>
+      <x:c r="B5" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A53" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A55" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A56" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A57" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A58" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A59" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A60" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A61" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A62" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A63" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A64" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A65" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A66" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A67" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A68" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A69" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A70" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A71" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A72" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A73" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A74" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A75" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A76" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A77" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A78" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B78" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A79" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A80" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A81" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A82" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A83" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A84" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A85" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B85" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A86" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B86" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A87" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B87" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A88" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B88" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A89" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B89" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A90" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A91" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B91" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A92" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B92" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A93" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B93" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A94" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B94" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A95" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B95" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A96" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B96" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A97" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B97" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A98" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B98" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A99" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B99" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A100" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B100" s="2" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A101" s="2" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B101" s="2" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A102" s="2" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B102" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A103" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B103" s="2" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A104" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B104" s="2" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A105" s="2" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B105" s="2" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A106" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B106" s="2" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A107" s="2" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B107" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A108" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B108" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A109" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B109" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A110" s="2" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B110" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A111" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B111" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A112" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B112" s="2" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A113" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B113" s="2" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A114" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B114" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A115" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B115" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A116" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B116" s="2" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A117" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B117" s="2" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A118" s="2" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B118" s="2" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A119" s="2" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B119" s="2" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A120" s="2" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B120" s="2" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A121" s="2" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B121" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A122" s="2" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B122" s="2" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A123" s="2" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B123" s="2" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A124" s="2" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B124" s="2" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A125" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B125" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A126" s="2" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B126" s="2" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A127" s="2" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B127" s="2" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A128" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B128" s="2" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A129" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B129" s="2" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A130" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B130" s="2" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A131" s="2" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B131" s="2" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A132" s="2" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B132" s="2" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A133" s="2" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B133" s="2" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A134" s="2" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B134" s="2" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A135" s="2" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B135" s="2" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A136" s="2" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B136" s="2" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A137" s="2" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B137" s="2" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A138" s="2" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="B138" s="2" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A139" s="2" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B139" s="2" t="s">
+        <x:v>292</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId12"/>
-    <x:hyperlink ref="B3" r:id="rId13"/>
-    <x:hyperlink ref="B4" r:id="rId14"/>
+    <x:hyperlink ref="B2" r:id="rId7"/>
   </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId2"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B138"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A138" workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1 A1:B138"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="8.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="18.710938" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A53" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A55" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A56" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A57" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A58" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A59" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A60" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A61" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A62" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A63" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A64" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A65" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A66" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A67" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A68" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A69" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A70" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A71" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A72" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A73" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A74" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A75" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A76" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A77" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A78" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B78" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A79" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A80" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A81" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A82" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A83" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A84" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A85" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B85" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A86" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B86" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A87" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B87" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A88" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B88" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A89" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B89" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A90" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A91" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B91" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A92" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B92" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A93" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B93" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A94" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B94" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A95" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B95" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A96" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B96" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A97" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B97" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A98" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B98" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A99" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B99" s="2" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A100" s="2" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B100" s="2" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A101" s="2" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B101" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A102" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B102" s="2" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A103" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B103" s="2" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A104" s="2" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B104" s="2" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A105" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B105" s="2" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A106" s="2" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B106" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A107" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B107" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A108" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B108" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A109" s="2" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B109" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A110" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B110" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A111" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B111" s="2" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A112" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B112" s="2" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A113" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B113" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A114" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B114" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A115" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B115" s="2" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A116" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B116" s="2" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A117" s="2" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B117" s="2" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A118" s="2" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B118" s="2" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A119" s="2" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B119" s="2" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A120" s="2" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B120" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A121" s="2" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B121" s="2" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A122" s="2" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B122" s="2" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A123" s="2" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B123" s="2" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A124" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B124" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A125" s="2" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B125" s="2" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A126" s="2" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B126" s="2" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A127" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B127" s="2" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A128" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B128" s="2" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A129" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B129" s="2" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A130" s="2" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B130" s="2" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A131" s="2" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B131" s="2" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A132" s="2" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B132" s="2" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A133" s="2" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B133" s="2" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A134" s="2" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B134" s="2" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A135" s="2" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B135" s="2" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A136" s="2" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B136" s="2" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A137" s="2" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="B137" s="2" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A138" s="2" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B138" s="2" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/documentExtractionResults.xlsx
+++ b/documentExtractionResults.xlsx
@@ -22,120 +22,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
-  <x:si>
-    <x:t>Cybersecurity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mini-Apps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Soft-Skills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q1_2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Soft_skills_Strategy-linkendIn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Strategy_pilot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Strategy_1-roadmap</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Strategy_2-grade_weighting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skills_&amp;_employability</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Learnings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mobile Development Pilot: Nucamp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Launch of the SD Mobile Course</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mpesa_Africa_Mini_Apps_Delivery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product_planning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AI</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+  <x:si>
+    <x:t>SD_Flatiron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skills_pathway</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SD_mobile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mpesa_mini_apps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soft_skills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DS_updates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cybersec_prep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cybersec_analyst</x:t>
   </x:si>
   <x:si>
     <x:t>Data_analytics</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Digital_marketing </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product_Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Analyst</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The cybersecurity training kicked off in October 2023 as a partnership between Moringa School and ICT Authority with the goal of equipping all public servants with knowledge and fundamentals of cybersecurity. We have so far trained two cohorts from various government ministries and parastatals including the Ministry of Lands, Agricultural Finance Corporation, NCPB among others. The training consists of 7 key topics for 3 days, each 4 hours per day. The training showcased the need for cybersecurity training in government and we are looking forward to training more civil servants this year. The next cohort will commence on February 5th 2024.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Introducing our Mini Applications Development Program, a groundbreaking initiative designed for aspiring developers. This unique course, developed in collaboration with Mpesa Africa, pioneers the introduction of mini-apps on the continent, uncovering the world of cross-platform super applications. The 22-week full-time program covers front-end concepts and reactive/state programming (React) requisite to rendering multiple mobile services on a native mobile application referred to as a super-application.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Soft Skills Programme continues to be our unique selling point and as such we are constantly innovating to improve the product offering to our customers.&lt;br&gt; As of the last half of 2023 we embarked on the RFP process to get a soft skills curriculum partner who was aligned to our learning goals which is to provide an experiential learning platform. Out of the service providers who were involved in the process we settled on Turnleft Media which is a subsidiary of LinkedIn Learning in Africa. The decision was informed by the subsidized cost and the robust library of courses.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In Q1 of 2024 and as part of the new soft skills strategy we are looking to:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Onboard students to LinkedIn Learning, a tool meant to enrich learning for our students.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We will pilot with SDFFT 9 the 2024 soft strategy which includes:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A soft skills roadmap that will see us pace and chunk soft skills until the phase 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Implementing grade weighting of the soft skills assessments across the different phases</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Differentiating content for the skills and employability pathways</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Draw learnings from the pilot cohort and implement at scale to the rest of the 2024 cohorts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fullstack Mobile Pilot: The current React Native mobile bootcamp is designed to equip learners with the requisite skills to design cross-platform (Web &amp; Mobile) applications that can be hosted on both iOS and android app stores. The pilot entails key milestones:&lt;br&gt; Content review and Scoping: Analysis of students' journey documenting tools, services and activities required from onboarding to successful course completion.&lt;br&gt; Status: 90% : Pending Fulltime and Part-time pacing ETA 10th Feb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In this course, you'll learn to build a mobile app using JavaScript's React Native framework. Javascript enables cross-platform software development where learners develop solutions that can be run on (compatibility with) both Android and iOS app stores.&lt;br&gt; Task: Scoping and pacing fulltime x part time schedules</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bronze module train the trainer and onboarding.&lt;br&gt; Task: Align on classroom expectations and roles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Design sprints prioritization. &lt;br&gt; Some of the courses in discussion include:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AI and Machine Learning (8-12 weeks)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Analytics (8-12 weeks)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Digital Marketing (6 weeks)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product Management (8-12 weeks)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cybersecurity Analyst+ (22-33 weeks)</x:t>
+    <x:t>Quote</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The product team, collaborating with Flatiron, has successfully resolved issues such as missing images, broken links, and deprecated reference resources in the Software Development (SD) courses. For the involved teams, please continue to share any issues/challenges with the content with your classroom leadership teams for further product support.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Implemented is a three-week introduction to web design, rooted in a user-centered design approach. By acknowledging the human factors inﬂuencing design choices, learners will gain the groundwork to craft digital products that foster inclusivity and deliver comprehensive user experiences. This 3 week addition has been added to Phase-0 meaning that the Skills Pathway has a 5 week enhanced Phase 0. We hope that the revamped BPs will optimize instructor support, minimizing time spent on help-desk troubleshooting.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The SD Mobile course powered by Nucamp launched this week with 13 learners. The mobile course has an outstanding balance of modalities, relying more on video demonstrations and text-based content to complement the material. With support for cross-platform operations, the mobile course will open up new possibilities in the hand-held solutions where we expect learners to design applications for both iOS and Android portable devices.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The team is currently wrapping up development on the Silver Module. This module covers UI Frameworks for Intermediate Mini App Developers. The objective of this pathway is to assist developers in advancing their web development skills and knowledge by exploring APIs and understanding their utilization for communication with other applications to acquire data or services.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We kicked off the implementation for the 2024 Professional Development strategy with the pilot cohort (SDFFT09). The learners have been onboarded and assigned LinkedIn Learning licences. We have also started to implement grade weighting (15% for soft skills) for cohorts having their ﬁrst professional development week in Q1 starting with SDFFT/PT08 and DSFT07. We are gearing up to upskill and reskill our learners this year as we strive to prepare them for the future of work.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are dedicated to improving our Data Science curriculum by reﬁning the feedback and iteration process. We are actively collaborating with the DS classroom and Flatiron teams to gather insights and resolve any curriculum-related issues or gaps. In the coming weeks, the classroom team should expect to receive updated instances addressing reported issues, such as broken image links, to ensure a smooth learning experience for our learners.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We have received valuable feedback regarding content improvement, and as the Product Team, we remain committed to listening and addressing concerns. While immediate content changes may not be feasible, we are actively developing internal content aligned with the cybersecurity prep course outline. This initiative aims not only to address key feedback areas from learners regarding the fragmented nature and lack of ﬂow in the pilot curriculum but also to reduce costs incurred by content providers. The anticipated relaunch is scheduled for the Q2 class.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We kicked off planning for the next addition to our cybersecurity courses by embarking on launching a new bootcamp Cybersecurity Analyst+ (CySA+) course in partnership with CompTIA. This course builds upon the security knowledge covered in Security+ by providing a more in-depth look at security analysis and mitigation. Think of Security+ as providing a broad security knowledge base, and CySA+ as teaching you how to apply that knowledge in real-world scenarios to identify threats, analyze incidents, and implement effective responses.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Analyzing HR data can provide valuable insights that can help organizations improve their performance and productivity. HR Analytics helps improve internal processes that relate to functions such as payroll, beneﬁts, hiring, employee onboarding, employee performance, and overall employee morale. This short course starts on March 25th and will run for 4 weeks..</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are what we repeatedly do. Excellence, therefore, is not an act but a habit. ~ Aristotle</x:t>
   </x:si>
   <x:si>
     <x:t>Name</x:t>
@@ -234,673 +180,673 @@
     <x:t>bdoutcomes@moringaschool.com</x:t>
   </x:si>
   <x:si>
+    <x:t>Beatrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>beatrice.wambui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bernard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bernard.musau@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bin.amin@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boyd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boyd.ndonga@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brenda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brenda.mwaura@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brian.ng'eno@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bright</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bright.gameli@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caleb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>caleb.kiprotich@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Catherine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>catherine.ndungu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cecilia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cecilia.akinyi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chloe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chloe@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>christine.karimi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clare</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clare.korir@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cyrus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cyrus.kirui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daisy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daisy.machoka@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daniel.karanja@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Denise</x:t>
+  </x:si>
+  <x:si>
+    <x:t>denise.wambui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dennis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dennis.kiboi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Densel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>densel.esekon@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diana.mongina@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dorine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dorine.ndinya@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edgar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edgar.shikumo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edwin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edwin.ombongi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edwinna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edwinna.bikeri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elizabeth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elizabeth.wanja@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eric</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eric.mongare@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esther</x:t>
+  </x:si>
+  <x:si>
+    <x:t>esther.kithinji@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>esther.wangai@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eunice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eunice.wagura@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Execco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>execco@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faith.rotich@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faith.kamau@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faith.thuita@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Felix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>felix.gitonga@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fiona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fiona.kirui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flora</x:t>
+  </x:si>
+  <x:si>
+    <x:t>floranyoro@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Francis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>francis.kipchumba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaudent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gaudent.akeyo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George</x:t>
+  </x:si>
+  <x:si>
+    <x:t>george.okumu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gideon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gideon.ngetich@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gideon.maroko@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gideon.biwott@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gloria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gloria.mumbi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grace.waturi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grace.mukami@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hamida.mstafa@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Henry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>henry.onyango@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hope.wanjeri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ian.okumu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Irene</x:t>
+  </x:si>
+  <x:si>
+    <x:t>irene.kathungu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Janet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>janet.wambui@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jerusha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jerusha.kasyula@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joan.chepkwony@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John</x:t>
+  </x:si>
+  <x:si>
+    <x:t>john.mutavi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joseph</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joseph.wambua@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joseph.mulwa@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joseph.mbugua@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joy.mugambi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julius</x:t>
+  </x:si>
+  <x:si>
+    <x:t>julius.mwangi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kathleen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kathleen.njagi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kelvin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kelvin.kipchumba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kelvin.muriithi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ken</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ken.mbuki@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khalif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khalif.muyideen@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lians</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lians.wanjiku@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Licio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>licio.lentimo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lorenah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lorenah.mbogo@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lucille</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lucille.kaleha@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maisie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maisie.riabe@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mark.tiba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mark.carlton@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mary.wanjiru@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mary.maina@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryann</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maryann.mwikali@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MatterMost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mmadmin@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maureen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maureen.murimi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mercy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mercy.nzau@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mildred</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mildred.jepkosgei@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nancy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nancy.umutoniwase@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nelson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nelson.muriithi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nikita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nikita.njoroge@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pauline</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pauline.kagiri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Peter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>peter.muturi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Philip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>philip.kasiano@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prince</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prince.israel@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rai.omido@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raphael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>raphael.oduor@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rhona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rhona.joy@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rodney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rodney.mutinda@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rose.oketch@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rosemary.njeri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sam.ngigi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sam.tomashi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samuel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.karu@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.kadima@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.maingi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samuel.mwangi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samwel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>samwel.jane@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sarah.nyamiri@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sarah.ngetha@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sasha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sasha.achieng@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shadrack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shadrack.kiema@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>silas.silikhe@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Snehar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>snehar@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solomon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>solomon.kitonyi@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stella</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stella.ngina@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stephen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stephen.njuguna@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>steve.otieno@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>steve.biko@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>steve.nyikuli@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Titus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>titus.ouko@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Veronica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>veronica.isiaho@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Victor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>victor.kuria@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>victor.njonge@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>walter.wanami@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whitney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>whitney.atieno@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>William</x:t>
+  </x:si>
+  <x:si>
+    <x:t>william.okomba@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>winnie.anyoso@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuying</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yuyingcwynn@moringaschool.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>BD</x:t>
   </x:si>
   <x:si>
     <x:t>businessdevelopment@moringaschool.com</x:t>
   </x:si>
   <x:si>
-    <x:t>Beatrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>beatrice.wambui@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bernard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bernard.musau@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bin.amin@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
     <x:t>Bookings</x:t>
   </x:si>
   <x:si>
     <x:t>bookings@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boyd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>boyd.ndonga@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brenda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brenda.mwaura@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brian</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brian.ng'eno@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bright</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bright.gameli@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Caleb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>caleb.kiprotich@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Catherine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>catherine.ndungu@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cecilia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cecilia.akinyi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chloe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chloe@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>christine.karimi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clare</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clare.korir@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cyrus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cyrus.kirui@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daisy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>daisy.machoka@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daniel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>daniel.karanja@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Denise</x:t>
-  </x:si>
-  <x:si>
-    <x:t>denise.wambui@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dennis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dennis.kiboi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Densel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>densel.esekon@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diana.mongina@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dorine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dorine.ndinya@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edgar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>edgar.shikumo@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edwin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>edwin.ombongi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edwinna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>edwinna.bikeri@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elizabeth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>elizabeth.wanja@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eric</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eric.mongare@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Esther</x:t>
-  </x:si>
-  <x:si>
-    <x:t>esther.kithinji@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>esther.wangai@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eunice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eunice.wagura@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Execco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>execco@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>faith.rotich@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>faith.kamau@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>faith.thuita@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Felix</x:t>
-  </x:si>
-  <x:si>
-    <x:t>felix.gitonga@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fiona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fiona.kirui@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flora</x:t>
-  </x:si>
-  <x:si>
-    <x:t>floranyoro@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Francis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>francis.kipchumba@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gaudent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gaudent.akeyo@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>George</x:t>
-  </x:si>
-  <x:si>
-    <x:t>george.okumu@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gideon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gideon.ngetich@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gideon.maroko@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gideon.biwott@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gloria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gloria.mumbi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grace</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grace.waturi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grace.mukami@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamida</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hamida.mstafa@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Henry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>henry.onyango@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hope.wanjeri@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ian</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ian.okumu@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Irene</x:t>
-  </x:si>
-  <x:si>
-    <x:t>irene.kathungu@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Janet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>janet.wambui@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jerusha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jerusha.kasyula@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joan.chepkwony@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John</x:t>
-  </x:si>
-  <x:si>
-    <x:t>john.mutavi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joseph</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joseph.wambua@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joseph.mulwa@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joseph.mbugua@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joy.mugambi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julius</x:t>
-  </x:si>
-  <x:si>
-    <x:t>julius.mwangi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kathleen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kathleen.njagi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kelvin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kelvin.kipchumba@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kelvin.muriithi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ken</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ken.mbuki@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khalif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>khalif.muyideen@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lians</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lians.wanjiku@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Licio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>licio.lentimo@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lorenah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lorenah.mbogo@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lucille</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lucille.kaleha@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maisie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maisie.riabe@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mark</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mark.tiba@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mark.carlton@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mary.wanjiru@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mary.maina@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maryann</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maryann.mwikali@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MatterMost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mmadmin@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maureen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maureen.murimi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mercy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mercy.nzau@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mildred</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mildred.jepkosgei@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nancy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nancy.umutoniwase@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nelson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nelson.muriithi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nikita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nikita.njoroge@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pauline</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pauline.kagiri@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>peter.muturi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Philip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>philip.kasiano@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prince</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prince.israel@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rai.omido@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Raphael</x:t>
-  </x:si>
-  <x:si>
-    <x:t>raphael.oduor@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rhona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rhona.joy@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rodney</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rodney.mutinda@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rose</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rose.oketch@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rosemary.njeri@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sam.ngigi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sam.tomashi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Samuel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>samuel.karu@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>samuel.kadima@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>samuel.maingi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>samuel.mwangi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Samwel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>samwel.jane@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sarah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sarah.nyamiri@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sarah.ngetha@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sasha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sasha.achieng@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shadrack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shadrack.kiema@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>silas.silikhe@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Snehar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>snehar@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Solomon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>solomon.kitonyi@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stella</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stella.ngina@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stephen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stephen.njuguna@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>steve.otieno@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>steve.biko@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>steve.nyikuli@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Titus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>titus.ouko@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Veronica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>veronica.isiaho@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Victor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>victor.kuria@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>victor.njonge@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>walter.wanami@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whitney</x:t>
-  </x:si>
-  <x:si>
-    <x:t>whitney.atieno@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>William</x:t>
-  </x:si>
-  <x:si>
-    <x:t>william.okomba@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winnie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>winnie.anyoso@moringaschool.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yuying</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yuyingcwynn@moringaschool.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -910,7 +856,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
+  <x:fonts count="4" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -922,6 +868,12 @@
       <x:sz val="10"/>
       <x:color theme="1"/>
       <x:name val="Arial"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Segoe UI"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
@@ -964,13 +916,16 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment wrapText="1"/>
@@ -978,6 +933,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,10 +1216,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S2"/>
+  <x:dimension ref="A1:J2"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="L1" workbookViewId="0">
-      <x:selection activeCell="N1" sqref="N1"/>
+    <x:sheetView topLeftCell="E1" workbookViewId="0">
+      <x:selection activeCell="J1" sqref="J1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.710938" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,18 +1230,18 @@
     <x:col min="4" max="4" width="53.425781" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="27.570312" style="1" customWidth="1"/>
     <x:col min="6" max="6" width="28.140625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="8.570312" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <x:col min="8" max="16384" width="8.710938" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:19" customFormat="1" ht="72.6" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:11" customFormat="1" ht="72.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
@@ -1309,91 +1265,37 @@
       <x:c r="J1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="1" t="s">
+    </x:row>
+    <x:row r="2" spans="1:11" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="1" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="1" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="1" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="1" t="s">
+      <x:c r="E2" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="1" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="1" t="s">
+      <x:c r="H2" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="1" t="s">
+      <x:c r="I2" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:19" customFormat="1" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="J2" s="1" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P2" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="Q2" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="R2" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="S2" s="1" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1410,10 +1312,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B139"/>
+  <x:dimension ref="A1:B137"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <x:selection activeCell="D8" sqref="D8"/>
+    <x:sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <x:selection activeCell="A91" sqref="A91"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,1125 +1324,1106 @@
     <x:col min="2" max="2" width="35.855469" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+    </x:row>
+    <x:row r="12" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="B12" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+    </x:row>
+    <x:row r="13" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="B13" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+    </x:row>
+    <x:row r="14" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B14" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
+    <x:row r="15" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+    </x:row>
+    <x:row r="16" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="B16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+    </x:row>
+    <x:row r="17" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="B17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+    </x:row>
+    <x:row r="18" spans="1:2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="B18" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+    </x:row>
+    <x:row r="19" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B19" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
+    <x:row r="20" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="B20" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+    </x:row>
+    <x:row r="21" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="B21" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+    </x:row>
+    <x:row r="22" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="B22" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+    </x:row>
+    <x:row r="23" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="B23" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+    </x:row>
+    <x:row r="24" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="B24" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A16" s="2" t="s">
+    <x:row r="25" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="B25" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A17" s="2" t="s">
+    <x:row r="26" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="B17" s="2" t="s">
+      <x:c r="B26" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A18" s="2" t="s">
+    <x:row r="27" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="B18" s="2" t="s">
+      <x:c r="B27" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A19" s="2" t="s">
+    <x:row r="28" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B19" s="2" t="s">
+      <x:c r="B28" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A20" s="2" t="s">
+    <x:row r="29" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B20" s="2" t="s">
+      <x:c r="B29" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A21" s="2" t="s">
+    <x:row r="30" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B21" s="2" t="s">
+      <x:c r="B30" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A22" s="2" t="s">
+    <x:row r="31" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B22" s="2" t="s">
+      <x:c r="B31" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A23" s="2" t="s">
+    <x:row r="32" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="B23" s="2" t="s">
+      <x:c r="B32" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A24" s="2" t="s">
+    <x:row r="33" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B24" s="2" t="s">
+      <x:c r="B33" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A25" s="2" t="s">
+    <x:row r="34" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B25" s="2" t="s">
+      <x:c r="B34" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A26" s="2" t="s">
+    <x:row r="35" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s">
+      <x:c r="B35" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A27" s="2" t="s">
+    <x:row r="36" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="B27" s="2" t="s">
+      <x:c r="B36" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A28" s="2" t="s">
+    <x:row r="37" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B28" s="2" t="s">
+      <x:c r="B37" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A29" s="2" t="s">
+    <x:row r="38" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B29" s="2" t="s">
+      <x:c r="B38" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A30" s="2" t="s">
+    <x:row r="39" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B30" s="2" t="s">
+      <x:c r="B39" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A31" s="2" t="s">
+    <x:row r="40" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="B31" s="2" t="s">
+      <x:c r="B40" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A32" s="2" t="s">
+    <x:row r="41" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B32" s="2" t="s">
+      <x:c r="B41" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A33" s="2" t="s">
+    <x:row r="42" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="B33" s="2" t="s">
+      <x:c r="B42" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A34" s="2" t="s">
+    <x:row r="43" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B34" s="2" t="s">
+      <x:c r="B43" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A35" s="2" t="s">
+    <x:row r="44" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="B35" s="2" t="s">
+      <x:c r="B44" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A36" s="2" t="s">
+    <x:row r="45" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B36" s="2" t="s">
+      <x:c r="B45" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A37" s="2" t="s">
+    <x:row r="46" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B37" s="2" t="s">
+    </x:row>
+    <x:row r="47" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A38" s="2" t="s">
+      <x:c r="B47" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B38" s="2" t="s">
+    </x:row>
+    <x:row r="48" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A39" s="2" t="s">
+      <x:c r="B48" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B39" s="2" t="s">
+    </x:row>
+    <x:row r="49" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A40" s="2" t="s">
+      <x:c r="B49" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B40" s="2" t="s">
+    </x:row>
+    <x:row r="50" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A41" s="2" t="s">
+    <x:row r="51" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="B41" s="2" t="s">
+    </x:row>
+    <x:row r="52" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A42" s="2" t="s">
+      <x:c r="B52" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="B42" s="2" t="s">
+    </x:row>
+    <x:row r="53" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A53" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A43" s="2" t="s">
+      <x:c r="B53" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B43" s="2" t="s">
+    </x:row>
+    <x:row r="54" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A44" s="2" t="s">
+      <x:c r="B54" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B44" s="2" t="s">
+    </x:row>
+    <x:row r="55" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A55" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A45" s="2" t="s">
+      <x:c r="B55" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B45" s="2" t="s">
+    </x:row>
+    <x:row r="56" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A56" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A46" s="2" t="s">
+      <x:c r="B56" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B46" s="2" t="s">
+    </x:row>
+    <x:row r="57" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A57" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A47" s="2" t="s">
+      <x:c r="B57" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B47" s="2" t="s">
+    </x:row>
+    <x:row r="58" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A58" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A48" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
+      <x:c r="B58" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A49" s="2" t="s">
+    <x:row r="59" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A59" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="B49" s="2" t="s">
+    </x:row>
+    <x:row r="60" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A60" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A50" s="2" t="s">
+    <x:row r="61" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A61" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="B50" s="2" t="s">
+      <x:c r="B61" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A51" s="2" t="s">
+    <x:row r="62" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A62" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B51" s="2" t="s">
+      <x:c r="B62" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A52" s="2" t="s">
+    <x:row r="63" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A63" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B52" s="2" t="s">
+      <x:c r="B63" s="2" t="s">
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A53" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
+    <x:row r="64" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A64" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A54" s="2" t="s">
+      <x:c r="B64" s="2" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B54" s="2" t="s">
+    </x:row>
+    <x:row r="65" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A65" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A55" s="2" t="s">
+      <x:c r="B65" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="B55" s="2" t="s">
+    </x:row>
+    <x:row r="66" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A66" s="2" t="s">
         <x:v>140</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A56" s="2" t="s">
+      <x:c r="B66" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="B56" s="2" t="s">
+    </x:row>
+    <x:row r="67" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A67" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A57" s="2" t="s">
+      <x:c r="B67" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="B57" s="2" t="s">
+    </x:row>
+    <x:row r="68" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A68" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A58" s="2" t="s">
+      <x:c r="B68" s="2" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="B58" s="2" t="s">
+    </x:row>
+    <x:row r="69" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A69" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A59" s="2" t="s">
+      <x:c r="B69" s="2" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="B59" s="2" t="s">
+    </x:row>
+    <x:row r="70" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A70" s="2" t="s">
         <x:v>148</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A60" s="2" t="s">
+      <x:c r="B70" s="2" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="B60" s="2" t="s">
+    </x:row>
+    <x:row r="71" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A71" s="2" t="s">
         <x:v>150</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A61" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
+      <x:c r="B71" s="2" t="s">
         <x:v>151</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A62" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B62" s="2" t="s">
+    <x:row r="72" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A72" s="2" t="s">
         <x:v>152</x:v>
       </x:c>
-    </x:row>
-    <x:row r="63" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A63" s="2" t="s">
+      <x:c r="B72" s="2" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="B63" s="2" t="s">
+    </x:row>
+    <x:row r="73" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A73" s="2" t="s">
         <x:v>154</x:v>
       </x:c>
-    </x:row>
-    <x:row r="64" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A64" s="2" t="s">
+      <x:c r="B73" s="2" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="B64" s="2" t="s">
+    </x:row>
+    <x:row r="74" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A74" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A65" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="B65" s="2" t="s">
+    <x:row r="75" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A75" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
         <x:v>157</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A66" s="2" t="s">
+    <x:row r="76" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A76" s="2" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="B66" s="2" t="s">
+      <x:c r="B76" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A67" s="2" t="s">
+    <x:row r="77" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A77" s="2" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="B67" s="2" t="s">
+      <x:c r="B77" s="2" t="s">
         <x:v>161</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A68" s="2" t="s">
+    <x:row r="78" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A78" s="2" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="B68" s="2" t="s">
+      <x:c r="B78" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A69" s="2" t="s">
+    <x:row r="79" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A79" s="2" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="B69" s="2" t="s">
+      <x:c r="B79" s="2" t="s">
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A70" s="2" t="s">
+    <x:row r="80" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A80" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="B70" s="2" t="s">
+    </x:row>
+    <x:row r="81" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A81" s="2" t="s">
         <x:v>167</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A71" s="2" t="s">
+      <x:c r="B81" s="2" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="B71" s="2" t="s">
+    </x:row>
+    <x:row r="82" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A82" s="2" t="s">
         <x:v>169</x:v>
       </x:c>
-    </x:row>
-    <x:row r="72" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A72" s="2" t="s">
+      <x:c r="B82" s="2" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B72" s="2" t="s">
+    </x:row>
+    <x:row r="83" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A83" s="2" t="s">
         <x:v>171</x:v>
       </x:c>
-    </x:row>
-    <x:row r="73" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A73" s="2" t="s">
+      <x:c r="B83" s="2" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="B73" s="2" t="s">
+    </x:row>
+    <x:row r="84" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A84" s="2" t="s">
         <x:v>173</x:v>
       </x:c>
-    </x:row>
-    <x:row r="74" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A74" s="2" t="s">
+      <x:c r="B84" s="2" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B74" s="2" t="s">
+    </x:row>
+    <x:row r="85" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A85" s="2" t="s">
         <x:v>175</x:v>
       </x:c>
-    </x:row>
-    <x:row r="75" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A75" s="2" t="s">
+      <x:c r="B85" s="2" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="B75" s="2" t="s">
+    </x:row>
+    <x:row r="86" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A86" s="2" t="s">
         <x:v>177</x:v>
       </x:c>
-    </x:row>
-    <x:row r="76" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A76" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="B76" s="2" t="s">
+      <x:c r="B86" s="2" t="s">
         <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A77" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="B77" s="2" t="s">
+    <x:row r="87" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A87" s="2" t="s">
         <x:v>179</x:v>
       </x:c>
-    </x:row>
-    <x:row r="78" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A78" s="2" t="s">
+      <x:c r="B87" s="2" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B78" s="2" t="s">
+    </x:row>
+    <x:row r="88" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A88" s="2" t="s">
         <x:v>181</x:v>
       </x:c>
-    </x:row>
-    <x:row r="79" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A79" s="2" t="s">
+      <x:c r="B88" s="2" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="B79" s="2" t="s">
+    </x:row>
+    <x:row r="89" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A89" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B89" s="2" t="s">
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A80" s="2" t="s">
+    <x:row r="90" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A90" s="2" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="B80" s="2" t="s">
+      <x:c r="B90" s="2" t="s">
         <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A81" s="2" t="s">
+    <x:row r="91" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A91" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B91" s="2" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="B81" s="2" t="s">
+    </x:row>
+    <x:row r="92" spans="1:2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A92" s="2" t="s">
         <x:v>187</x:v>
       </x:c>
-    </x:row>
-    <x:row r="82" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A82" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="B82" s="2" t="s">
+      <x:c r="B92" s="2" t="s">
         <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A83" s="2" t="s">
+    <x:row r="93" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A93" s="2" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="B83" s="2" t="s">
+      <x:c r="B93" s="2" t="s">
         <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A84" s="2" t="s">
+    <x:row r="94" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A94" s="2" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="B84" s="2" t="s">
+      <x:c r="B94" s="2" t="s">
         <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A85" s="2" t="s">
+    <x:row r="95" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A95" s="2" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="B85" s="2" t="s">
+      <x:c r="B95" s="2" t="s">
         <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A86" s="2" t="s">
+    <x:row r="96" spans="1:2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A96" s="2" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="B86" s="2" t="s">
+      <x:c r="B96" s="2" t="s">
         <x:v>196</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A87" s="2" t="s">
+    <x:row r="97" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A97" s="2" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="B87" s="2" t="s">
+      <x:c r="B97" s="2" t="s">
         <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A88" s="2" t="s">
+    <x:row r="98" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A98" s="2" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="B88" s="2" t="s">
+      <x:c r="B98" s="2" t="s">
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A89" s="2" t="s">
+    <x:row r="99" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A99" s="2" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="B89" s="2" t="s">
+      <x:c r="B99" s="2" t="s">
         <x:v>202</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A90" s="2" t="s">
+    <x:row r="100" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A100" s="2" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="B90" s="2" t="s">
+      <x:c r="B100" s="2" t="s">
         <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A91" s="2" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="B91" s="2" t="s">
+    <x:row r="101" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A101" s="2" t="s">
         <x:v>205</x:v>
       </x:c>
-    </x:row>
-    <x:row r="92" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A92" s="2" t="s">
+      <x:c r="B101" s="2" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="B92" s="2" t="s">
+    </x:row>
+    <x:row r="102" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A102" s="2" t="s">
         <x:v>207</x:v>
       </x:c>
-    </x:row>
-    <x:row r="93" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A93" s="2" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="B93" s="2" t="s">
+      <x:c r="B102" s="2" t="s">
         <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A94" s="2" t="s">
+    <x:row r="103" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A103" s="2" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="B94" s="2" t="s">
+      <x:c r="B103" s="2" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A95" s="2" t="s">
+    <x:row r="104" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A104" s="2" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="B95" s="2" t="s">
+      <x:c r="B104" s="2" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A96" s="2" t="s">
+    <x:row r="105" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A105" s="2" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="B96" s="2" t="s">
+      <x:c r="B105" s="2" t="s">
         <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A97" s="2" t="s">
+    <x:row r="106" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A106" s="2" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="B97" s="2" t="s">
+      <x:c r="B106" s="2" t="s">
         <x:v>216</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A98" s="2" t="s">
+    <x:row r="107" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A107" s="2" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="B98" s="2" t="s">
+      <x:c r="B107" s="2" t="s">
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A99" s="2" t="s">
+    <x:row r="108" spans="1:2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A108" s="2" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="B99" s="2" t="s">
+      <x:c r="B108" s="2" t="s">
         <x:v>220</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A100" s="2" t="s">
+    <x:row r="109" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A109" s="2" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="B100" s="2" t="s">
+      <x:c r="B109" s="2" t="s">
         <x:v>222</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A101" s="2" t="s">
+    <x:row r="110" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A110" s="2" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="B101" s="2" t="s">
+      <x:c r="B110" s="2" t="s">
         <x:v>224</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A102" s="2" t="s">
+    <x:row r="111" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A111" s="2" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B111" s="2" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="B102" s="2" t="s">
+    </x:row>
+    <x:row r="112" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A112" s="2" t="s">
         <x:v>226</x:v>
       </x:c>
-    </x:row>
-    <x:row r="103" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A103" s="2" t="s">
+      <x:c r="B112" s="2" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="B103" s="2" t="s">
+    </x:row>
+    <x:row r="113" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A113" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B113" s="2" t="s">
         <x:v>228</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A104" s="2" t="s">
+    <x:row r="114" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A114" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B114" s="2" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="B104" s="2" t="s">
+    </x:row>
+    <x:row r="115" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A115" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B115" s="2" t="s">
         <x:v>230</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A105" s="2" t="s">
+    <x:row r="116" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A116" s="2" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="B105" s="2" t="s">
+      <x:c r="B116" s="2" t="s">
         <x:v>232</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A106" s="2" t="s">
+    <x:row r="117" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A117" s="2" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="B106" s="2" t="s">
+      <x:c r="B117" s="2" t="s">
         <x:v>234</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A107" s="2" t="s">
+    <x:row r="118" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A118" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B118" s="2" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="B107" s="2" t="s">
+    </x:row>
+    <x:row r="119" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A119" s="2" t="s">
         <x:v>236</x:v>
       </x:c>
-    </x:row>
-    <x:row r="108" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A108" s="2" t="s">
+      <x:c r="B119" s="2" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="B108" s="2" t="s">
+    </x:row>
+    <x:row r="120" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A120" s="2" t="s">
         <x:v>238</x:v>
       </x:c>
-    </x:row>
-    <x:row r="109" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A109" s="2" t="s">
+      <x:c r="B120" s="2" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="B109" s="2" t="s">
+    </x:row>
+    <x:row r="121" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A121" s="2" t="s">
         <x:v>240</x:v>
       </x:c>
-    </x:row>
-    <x:row r="110" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A110" s="2" t="s">
+      <x:c r="B121" s="2" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="B110" s="2" t="s">
+    </x:row>
+    <x:row r="122" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A122" s="2" t="s">
         <x:v>242</x:v>
       </x:c>
-    </x:row>
-    <x:row r="111" spans="1:4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A111" s="2" t="s">
+      <x:c r="B122" s="2" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="B111" s="2" t="s">
+    </x:row>
+    <x:row r="123" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A123" s="2" t="s">
         <x:v>244</x:v>
       </x:c>
-    </x:row>
-    <x:row r="112" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A112" s="2" t="s">
+      <x:c r="B123" s="2" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="B112" s="2" t="s">
+    </x:row>
+    <x:row r="124" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A124" s="2" t="s">
         <x:v>246</x:v>
       </x:c>
-    </x:row>
-    <x:row r="113" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A113" s="2" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="B113" s="2" t="s">
+      <x:c r="B124" s="2" t="s">
         <x:v>247</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A114" s="2" t="s">
+    <x:row r="125" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A125" s="2" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="B114" s="2" t="s">
+      <x:c r="B125" s="2" t="s">
         <x:v>249</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A115" s="2" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="B115" s="2" t="s">
+    <x:row r="126" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A126" s="2" t="s">
         <x:v>250</x:v>
       </x:c>
-    </x:row>
-    <x:row r="116" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A116" s="2" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="B116" s="2" t="s">
+      <x:c r="B126" s="2" t="s">
         <x:v>251</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A117" s="2" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="B117" s="2" t="s">
+    <x:row r="127" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A127" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B127" s="2" t="s">
         <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A118" s="2" t="s">
+    <x:row r="128" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A128" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B128" s="2" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="B118" s="2" t="s">
+    </x:row>
+    <x:row r="129" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A129" s="2" t="s">
         <x:v>254</x:v>
       </x:c>
-    </x:row>
-    <x:row r="119" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A119" s="2" t="s">
+      <x:c r="B129" s="2" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="B119" s="2" t="s">
+    </x:row>
+    <x:row r="130" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A130" s="2" t="s">
         <x:v>256</x:v>
       </x:c>
-    </x:row>
-    <x:row r="120" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A120" s="2" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="B120" s="2" t="s">
+      <x:c r="B130" s="2" t="s">
         <x:v>257</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A121" s="2" t="s">
+    <x:row r="131" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A131" s="2" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="B121" s="2" t="s">
+      <x:c r="B131" s="2" t="s">
         <x:v>259</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A122" s="2" t="s">
+    <x:row r="132" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A132" s="2" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B132" s="2" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="B122" s="2" t="s">
+    </x:row>
+    <x:row r="133" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A133" s="2" t="s">
         <x:v>261</x:v>
       </x:c>
-    </x:row>
-    <x:row r="123" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A123" s="2" t="s">
+      <x:c r="B133" s="2" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="B123" s="2" t="s">
+    </x:row>
+    <x:row r="134" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A134" s="2" t="s">
         <x:v>263</x:v>
       </x:c>
-    </x:row>
-    <x:row r="124" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A124" s="2" t="s">
+      <x:c r="B134" s="2" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="B124" s="2" t="s">
+    </x:row>
+    <x:row r="135" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A135" s="2" t="s">
         <x:v>265</x:v>
       </x:c>
-    </x:row>
-    <x:row r="125" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A125" s="2" t="s">
+      <x:c r="B135" s="2" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="B125" s="2" t="s">
+    </x:row>
+    <x:row r="136" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A136" s="2" t="s">
         <x:v>267</x:v>
       </x:c>
-    </x:row>
-    <x:row r="126" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A126" s="2" t="s">
+      <x:c r="B136" s="2" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="B126" s="2" t="s">
+    </x:row>
+    <x:row r="137" spans="1:2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A137" s="2" t="s">
         <x:v>269</x:v>
       </x:c>
-    </x:row>
-    <x:row r="127" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A127" s="2" t="s">
+      <x:c r="B137" s="2" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="B127" s="2" t="s">
-        <x:v>271</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A128" s="2" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="B128" s="2" t="s">
-        <x:v>273</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A129" s="2" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="B129" s="2" t="s">
-        <x:v>274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A130" s="2" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="B130" s="2" t="s">
-        <x:v>275</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="131" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A131" s="2" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="B131" s="2" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A132" s="2" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="B132" s="2" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A133" s="2" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="B133" s="2" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A134" s="2" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="B134" s="2" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A135" s="2" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="B135" s="2" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A136" s="2" t="s">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="B136" s="2" t="s">
-        <x:v>286</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A137" s="2" t="s">
-        <x:v>287</x:v>
-      </x:c>
-      <x:c r="B137" s="2" t="s">
-        <x:v>288</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="138" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A138" s="2" t="s">
-        <x:v>289</x:v>
-      </x:c>
-      <x:c r="B138" s="2" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="139" spans="1:4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <x:c r="A139" s="2" t="s">
-        <x:v>291</x:v>
-      </x:c>
-      <x:c r="B139" s="2" t="s">
-        <x:v>292</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId7"/>
-  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId2"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
@@ -2553,7 +2436,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B138"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A138" workbookViewId="0">
+    <x:sheetView topLeftCell="A137" workbookViewId="0">
       <x:selection activeCell="A1" sqref="A1 A1:B138"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2565,1106 +2448,1106 @@
   <x:sheetData>
     <x:row r="1" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A18" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A20" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A21" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A22" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A23" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A24" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A25" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A26" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A28" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A29" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A30" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A31" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A38" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A39" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A40" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A41" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A42" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A43" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A44" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A45" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A46" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A47" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A48" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A49" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A50" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A51" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A52" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A53" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A54" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A55" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A56" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A57" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A58" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A59" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B59" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A60" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A61" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A62" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A63" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A64" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A65" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A66" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A67" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B67" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A68" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B68" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A69" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B69" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A70" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B70" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A71" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A72" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A73" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B73" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A74" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B74" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A75" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B75" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A76" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B76" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A77" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B77" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A78" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B78" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A79" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B79" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A80" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B80" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A81" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B81" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A82" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B82" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A83" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B83" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A84" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B84" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A85" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B85" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A86" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B86" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A87" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B87" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A88" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B88" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A89" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B89" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A90" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B90" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A91" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B91" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A92" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B92" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A93" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B93" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A94" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B94" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A95" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B95" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A96" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B96" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A97" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B97" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A98" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B98" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A99" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B99" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A100" s="2" t="s">
-        <x:v>223</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B100" s="2" t="s">
-        <x:v>224</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A101" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B101" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A102" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B102" s="2" t="s">
-        <x:v>228</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A103" s="2" t="s">
-        <x:v>229</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B103" s="2" t="s">
-        <x:v>230</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A104" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B104" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A105" s="2" t="s">
-        <x:v>233</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B105" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A106" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B106" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A107" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B107" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A108" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B108" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A109" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B109" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A110" s="2" t="s">
-        <x:v>243</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B110" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A111" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B111" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A112" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B112" s="2" t="s">
-        <x:v>247</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A113" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B113" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A114" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B114" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A115" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B115" s="2" t="s">
-        <x:v>251</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A116" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B116" s="2" t="s">
-        <x:v>252</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A117" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B117" s="2" t="s">
-        <x:v>254</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A118" s="2" t="s">
-        <x:v>255</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B118" s="2" t="s">
-        <x:v>256</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A119" s="2" t="s">
-        <x:v>255</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B119" s="2" t="s">
-        <x:v>257</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A120" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B120" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A121" s="2" t="s">
-        <x:v>260</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B121" s="2" t="s">
-        <x:v>261</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A122" s="2" t="s">
-        <x:v>262</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B122" s="2" t="s">
-        <x:v>263</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A123" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B123" s="2" t="s">
-        <x:v>265</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A124" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B124" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A125" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B125" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A126" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B126" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A127" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B127" s="2" t="s">
-        <x:v>273</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A128" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B128" s="2" t="s">
-        <x:v>274</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A129" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B129" s="2" t="s">
-        <x:v>275</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A130" s="2" t="s">
-        <x:v>276</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B130" s="2" t="s">
-        <x:v>277</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A131" s="2" t="s">
-        <x:v>278</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B131" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A132" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B132" s="2" t="s">
-        <x:v>281</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A133" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B133" s="2" t="s">
-        <x:v>282</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A134" s="2" t="s">
-        <x:v>283</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B134" s="2" t="s">
-        <x:v>284</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A135" s="2" t="s">
-        <x:v>285</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B135" s="2" t="s">
-        <x:v>286</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A136" s="2" t="s">
-        <x:v>287</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B136" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A137" s="2" t="s">
-        <x:v>289</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B137" s="2" t="s">
-        <x:v>290</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A138" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B138" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
